--- a/df_names.xlsx
+++ b/df_names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\seminar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\seminar\tidyverse_201912\tidyverse_201912\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A329EBF6-BB7B-4A0F-8675-344D5B6DF101}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784A6ABE-592A-459D-A87A-29C5C1A9586F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="df_names" sheetId="1" r:id="rId1"/>
@@ -546,7 +546,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1380,11 +1380,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B46" sqref="B46:B51"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2103,14 +2103,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -2174,11 +2177,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
